--- a/src/main/resources/template/checkout.xlsx
+++ b/src/main/resources/template/checkout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WytDownload\IdeaWorkSpace\materiel\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF7252F-6362-4ACB-9B21-5A15716E59D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D2BF7-347B-470B-85D9-B23F62DD3DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="240" windowWidth="18195" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="780" windowWidth="21705" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>商品编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -391,10 +395,10 @@
     <col min="1" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="7" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,6 +419,9 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/checkout.xlsx
+++ b/src/main/resources/template/checkout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WytDownload\IdeaWorkSpace\materiel\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D2BF7-347B-470B-85D9-B23F62DD3DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CF4323-E4D5-4B16-81C8-E22E38CC251D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="780" windowWidth="21705" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21705" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>商品编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>厂家型号</t>
+  </si>
+  <si>
+    <t>描述(规格)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -396,9 +399,10 @@
     <col min="4" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,6 +426,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/checkout.xlsx
+++ b/src/main/resources/template/checkout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WytDownload\IdeaWorkSpace\materiel\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CF4323-E4D5-4B16-81C8-E22E38CC251D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF50CC24-4371-438D-873F-81A5E059096E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21705" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="21705" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>商品编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +51,22 @@
   </si>
   <si>
     <t>描述(规格)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称(分类)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,61 +395,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="8" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
     <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格为数值类型" sqref="F1:F1048576" xr:uid="{E24F475D-0F38-4AAE-940F-ADDC48F16A4D}">
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格为数值类型" sqref="G1:G1048576 H2:H1048576 I1:I1048576" xr:uid="{E24F475D-0F38-4AAE-940F-ADDC48F16A4D}">
       <formula1>0</formula1>
       <formula2>999999999.99</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格为数值类型" sqref="G1:G1048576" xr:uid="{C39E2B74-2A46-4B93-A746-19A263FC068E}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格为数值类型" sqref="J1:J1048576" xr:uid="{C39E2B74-2A46-4B93-A746-19A263FC068E}">
       <formula1>0</formula1>
       <formula2>9999999999999</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="该单元格为数值类型" sqref="H1" xr:uid="{8304296E-88D8-4710-AE7F-BA5A0535AF56}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
